--- a/countries/liberia/data-app/AugMasterData.xlsx
+++ b/countries/liberia/data-app/AugMasterData.xlsx
@@ -4,29 +4,34 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="140" windowWidth="26560" windowHeight="17340" tabRatio="910" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="26560" windowHeight="14840" tabRatio="910" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base Data" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="17" r:id="rId2"/>
-    <sheet name="New Contacts" sheetId="7" r:id="rId3"/>
-    <sheet name="Cumulative Contacts" sheetId="9" r:id="rId4"/>
-    <sheet name="New Cases" sheetId="10" r:id="rId5"/>
-    <sheet name="Cumulative Cases" sheetId="11" r:id="rId6"/>
-    <sheet name="Healthcare Workers" sheetId="13" r:id="rId7"/>
-    <sheet name="Admissions and discharge" sheetId="14" r:id="rId8"/>
-    <sheet name="Lab" sheetId="15" r:id="rId9"/>
-    <sheet name="New Deaths" sheetId="12" r:id="rId10"/>
-    <sheet name="Cumulative Deaths" sheetId="5" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId3"/>
+    <sheet name="New Contacts" sheetId="7" r:id="rId4"/>
+    <sheet name="Cumulative Contacts" sheetId="9" r:id="rId5"/>
+    <sheet name="New Cases" sheetId="10" r:id="rId6"/>
+    <sheet name="Cumulative Cases" sheetId="11" r:id="rId7"/>
+    <sheet name="Healthcare Workers" sheetId="13" r:id="rId8"/>
+    <sheet name="Admissions and discharge" sheetId="14" r:id="rId9"/>
+    <sheet name="Lab" sheetId="15" r:id="rId10"/>
+    <sheet name="New Deaths" sheetId="12" r:id="rId11"/>
+    <sheet name="Cumulative Deaths" sheetId="5" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Dashboard!$A$1:$T$78</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
-    <pivotCache cacheId="1" r:id="rId13"/>
-    <pivotCache cacheId="2" r:id="rId14"/>
-    <pivotCache cacheId="3" r:id="rId15"/>
-    <pivotCache cacheId="4" r:id="rId16"/>
-    <pivotCache cacheId="5" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId15"/>
+    <pivotCache cacheId="2" r:id="rId16"/>
+    <pivotCache cacheId="3" r:id="rId17"/>
+    <pivotCache cacheId="4" r:id="rId18"/>
+    <pivotCache cacheId="5" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -95,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -316,9 +321,6 @@
     <t>Contacts seen that day</t>
   </si>
   <si>
-    <t>DASHBOARD</t>
-  </si>
-  <si>
     <t>Total Deaths</t>
   </si>
   <si>
@@ -330,6 +332,21 @@
   <si>
     <t>Healthcare Workers</t>
   </si>
+  <si>
+    <t>Contacts seen previous day</t>
+  </si>
+  <si>
+    <t>Data as of August 20, 2014</t>
+  </si>
+  <si>
+    <t>Source: Liberia Ebola SitRep no. 97</t>
+  </si>
+  <si>
+    <t>Ministry of Health and Social Welfare</t>
+  </si>
+  <si>
+    <t>Liberia Ebola Dashboard</t>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +476,12 @@
       <sz val="24"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -588,7 +611,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -604,8 +627,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -691,13 +744,32 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Heading 4" xfId="4" builtinId="19"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -705,11 +777,30 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1633,12 +1724,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:legend>
@@ -10404,8 +10490,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.243212820641581"/>
-          <c:y val="0.0694018510844039"/>
+          <c:x val="0.409879459512005"/>
+          <c:y val="0.0518579914352811"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11034,8 +11120,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.390582321277637"/>
-          <c:y val="0.0834327527240913"/>
+          <c:x val="0.394697514662519"/>
+          <c:y val="0.0541930285030161"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12035,8 +12121,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.214954520771111"/>
-          <c:y val="0.866917558382125"/>
+          <c:x val="0.214954505686789"/>
+          <c:y val="0.831829902841092"/>
           <c:w val="0.567217282106978"/>
           <c:h val="0.111495524597887"/>
         </c:manualLayout>
@@ -13426,8 +13512,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.08487001938828"/>
-          <c:y val="0.894082917054723"/>
+          <c:x val="0.0759811023622047"/>
+          <c:y val="0.864843210388175"/>
           <c:w val="0.905427188435616"/>
           <c:h val="0.105892529562837"/>
         </c:manualLayout>
@@ -13500,8 +13586,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.390582321277637"/>
-          <c:y val="0.0834327527240913"/>
+          <c:x val="0.39058228832507"/>
+          <c:y val="0.0571170051112032"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -14562,15 +14648,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>120651</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14593,16 +14679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>88901</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>605367</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14626,15 +14712,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14657,16 +14743,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241299</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>393701</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>605366</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14690,15 +14776,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14721,16 +14807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>237066</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601133</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14753,16 +14839,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14783,9 +14869,19 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:absoluteAnchor>
-    <xdr:pos x="10828866" y="6697133"/>
-    <xdr:ext cx="5232400" cy="3886200"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="Chart 8"/>
@@ -14804,10 +14900,20 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-  <xdr:absoluteAnchor>
-    <xdr:pos x="10858500" y="10744200"/>
-    <xdr:ext cx="5257800" cy="3784600"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="Chart 9"/>
@@ -14826,7 +14932,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26885,6 +26991,22 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" name="New contacts"/>
+    <tableColumn id="3" name="Total contacts listed"/>
+    <tableColumn id="4" name="Contacts under follow up"/>
+    <tableColumn id="5" name="Contacts seen previous day"/>
+    <tableColumn id="6" name="Contacts completed 21 day follow up"/>
+    <tableColumn id="7" name="Contacts lost to follow up"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -34384,12 +34506,422 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="17">
+        <v>41853</v>
+      </c>
+      <c r="B2" s="14">
+        <v>257</v>
+      </c>
+      <c r="C2" s="14">
+        <v>40</v>
+      </c>
+      <c r="D2" s="14">
+        <v>99</v>
+      </c>
+      <c r="E2" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17">
+        <v>41854</v>
+      </c>
+      <c r="B3" s="14">
+        <v>264</v>
+      </c>
+      <c r="C3" s="14">
+        <v>41</v>
+      </c>
+      <c r="D3" s="14">
+        <v>102</v>
+      </c>
+      <c r="E3" s="14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17">
+        <v>41855</v>
+      </c>
+      <c r="B4" s="14">
+        <v>271</v>
+      </c>
+      <c r="C4" s="14">
+        <v>41</v>
+      </c>
+      <c r="D4" s="14">
+        <v>108</v>
+      </c>
+      <c r="E4" s="14">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17">
+        <v>41856</v>
+      </c>
+      <c r="B5" s="14">
+        <v>276</v>
+      </c>
+      <c r="C5" s="14">
+        <v>42</v>
+      </c>
+      <c r="D5" s="14">
+        <v>109</v>
+      </c>
+      <c r="E5" s="14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="17">
+        <v>41857</v>
+      </c>
+      <c r="B6" s="14">
+        <v>283</v>
+      </c>
+      <c r="C6" s="14">
+        <v>42</v>
+      </c>
+      <c r="D6" s="14">
+        <v>115</v>
+      </c>
+      <c r="E6" s="14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="17">
+        <v>41858</v>
+      </c>
+      <c r="B7" s="14">
+        <v>295</v>
+      </c>
+      <c r="C7" s="14">
+        <v>42</v>
+      </c>
+      <c r="D7" s="14">
+        <v>119</v>
+      </c>
+      <c r="E7" s="14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17">
+        <v>41859</v>
+      </c>
+      <c r="B8" s="14">
+        <v>303</v>
+      </c>
+      <c r="C8" s="14">
+        <v>45</v>
+      </c>
+      <c r="D8" s="14">
+        <v>122</v>
+      </c>
+      <c r="E8" s="14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="17">
+        <v>41860</v>
+      </c>
+      <c r="B9" s="14">
+        <v>312</v>
+      </c>
+      <c r="C9" s="14">
+        <v>49</v>
+      </c>
+      <c r="D9" s="14">
+        <v>123</v>
+      </c>
+      <c r="E9" s="14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="17">
+        <v>41861</v>
+      </c>
+      <c r="B10" s="14">
+        <v>326</v>
+      </c>
+      <c r="C10" s="14">
+        <v>50</v>
+      </c>
+      <c r="D10" s="14">
+        <v>133</v>
+      </c>
+      <c r="E10" s="14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="17">
+        <v>41862</v>
+      </c>
+      <c r="B11" s="14">
+        <v>344</v>
+      </c>
+      <c r="C11" s="14">
+        <v>50</v>
+      </c>
+      <c r="D11" s="14">
+        <v>151</v>
+      </c>
+      <c r="E11" s="14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="17">
+        <v>41863</v>
+      </c>
+      <c r="B12" s="14">
+        <v>365</v>
+      </c>
+      <c r="C12" s="14">
+        <v>55</v>
+      </c>
+      <c r="D12" s="14">
+        <v>163</v>
+      </c>
+      <c r="E12" s="14">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="17">
+        <v>41864</v>
+      </c>
+      <c r="B13" s="14">
+        <v>402</v>
+      </c>
+      <c r="C13" s="14">
+        <v>66</v>
+      </c>
+      <c r="D13" s="14">
+        <v>188</v>
+      </c>
+      <c r="E13" s="14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="17">
+        <v>41865</v>
+      </c>
+      <c r="B14" s="14">
+        <v>435</v>
+      </c>
+      <c r="C14" s="14">
+        <v>79</v>
+      </c>
+      <c r="D14" s="14">
+        <v>192</v>
+      </c>
+      <c r="E14" s="14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="17">
+        <v>41866</v>
+      </c>
+      <c r="B15" s="14">
+        <v>455</v>
+      </c>
+      <c r="C15" s="14">
+        <v>83</v>
+      </c>
+      <c r="D15" s="14">
+        <v>200</v>
+      </c>
+      <c r="E15" s="14">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="17">
+        <v>41867</v>
+      </c>
+      <c r="B16" s="14">
+        <v>470</v>
+      </c>
+      <c r="C16" s="14">
+        <v>90</v>
+      </c>
+      <c r="D16" s="14">
+        <v>203</v>
+      </c>
+      <c r="E16" s="14">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="17">
+        <v>41868</v>
+      </c>
+      <c r="B17" s="14">
+        <v>481</v>
+      </c>
+      <c r="C17" s="14">
+        <v>97</v>
+      </c>
+      <c r="D17" s="14">
+        <v>204</v>
+      </c>
+      <c r="E17" s="14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="17">
+        <v>41869</v>
+      </c>
+      <c r="B18" s="14">
+        <v>565</v>
+      </c>
+      <c r="C18" s="14">
+        <v>122</v>
+      </c>
+      <c r="D18" s="14">
+        <v>237</v>
+      </c>
+      <c r="E18" s="14">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="17">
+        <v>41870</v>
+      </c>
+      <c r="B19" s="14">
+        <v>587</v>
+      </c>
+      <c r="C19" s="14">
+        <v>126</v>
+      </c>
+      <c r="D19" s="14">
+        <v>250</v>
+      </c>
+      <c r="E19" s="14">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="17">
+        <v>41871</v>
+      </c>
+      <c r="B20" s="14">
+        <v>613</v>
+      </c>
+      <c r="C20" s="14">
+        <v>132</v>
+      </c>
+      <c r="D20" s="14">
+        <v>265</v>
+      </c>
+      <c r="E20" s="14">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="14">
+        <v>7304</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1292</v>
+      </c>
+      <c r="D21" s="14">
+        <v>3083</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -34399,53 +34931,140 @@
     <col min="4" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="44" thickBot="1">
+    <row r="1" spans="1:19" ht="44" thickBot="1">
       <c r="A1" s="27" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B1" s="32"/>
     </row>
-    <row r="2" spans="1:2" ht="38" thickTop="1" thickBot="1">
+    <row r="2" spans="1:19" ht="38" thickTop="1" thickBot="1">
       <c r="A2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="29">
+        <f>'New Deaths'!B20</f>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="38" thickTop="1" thickBot="1">
+      <c r="A3" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" s="29">
-        <f>'Cumulative Deaths'!$B$21</f>
-        <v>7304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="38" thickTop="1" thickBot="1">
-      <c r="A3" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="B3" s="31">
         <f>'New Cases'!$B$21</f>
         <v>651</v>
       </c>
+      <c r="S3" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="38" thickTop="1" thickBot="1">
+    <row r="4" spans="1:19" ht="38" thickTop="1" thickBot="1">
       <c r="A4" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="29">
         <f>'New Contacts'!$B$21</f>
         <v>1689</v>
       </c>
+      <c r="S4" s="34" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="38" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="38" thickTop="1" thickBot="1">
       <c r="A5" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="31">
+        <f>'Healthcare Workers'!$B$20</f>
+        <v>115</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+  <pageSetup scale="44" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="31">
-        <f>'Healthcare Workers'!$B$21</f>
-        <v>1533</v>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickTop="1"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="33">
+        <v>41871</v>
+      </c>
+      <c r="B2">
+        <v>196</v>
+      </c>
+      <c r="C2">
+        <v>2643</v>
+      </c>
+      <c r="D2">
+        <v>1723</v>
+      </c>
+      <c r="E2">
+        <v>1536</v>
+      </c>
+      <c r="F2">
+        <v>115</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -34454,12 +35073,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -34775,7 +35394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -35096,12 +35715,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -35481,7 +36100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -35938,7 +36557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -36191,12 +36810,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -36557,392 +37176,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" customWidth="1"/>
-    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="17">
-        <v>41853</v>
-      </c>
-      <c r="B2" s="14">
-        <v>257</v>
-      </c>
-      <c r="C2" s="14">
-        <v>40</v>
-      </c>
-      <c r="D2" s="14">
-        <v>99</v>
-      </c>
-      <c r="E2" s="14">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17">
-        <v>41854</v>
-      </c>
-      <c r="B3" s="14">
-        <v>264</v>
-      </c>
-      <c r="C3" s="14">
-        <v>41</v>
-      </c>
-      <c r="D3" s="14">
-        <v>102</v>
-      </c>
-      <c r="E3" s="14">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="17">
-        <v>41855</v>
-      </c>
-      <c r="B4" s="14">
-        <v>271</v>
-      </c>
-      <c r="C4" s="14">
-        <v>41</v>
-      </c>
-      <c r="D4" s="14">
-        <v>108</v>
-      </c>
-      <c r="E4" s="14">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="17">
-        <v>41856</v>
-      </c>
-      <c r="B5" s="14">
-        <v>276</v>
-      </c>
-      <c r="C5" s="14">
-        <v>42</v>
-      </c>
-      <c r="D5" s="14">
-        <v>109</v>
-      </c>
-      <c r="E5" s="14">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="17">
-        <v>41857</v>
-      </c>
-      <c r="B6" s="14">
-        <v>283</v>
-      </c>
-      <c r="C6" s="14">
-        <v>42</v>
-      </c>
-      <c r="D6" s="14">
-        <v>115</v>
-      </c>
-      <c r="E6" s="14">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="17">
-        <v>41858</v>
-      </c>
-      <c r="B7" s="14">
-        <v>295</v>
-      </c>
-      <c r="C7" s="14">
-        <v>42</v>
-      </c>
-      <c r="D7" s="14">
-        <v>119</v>
-      </c>
-      <c r="E7" s="14">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="17">
-        <v>41859</v>
-      </c>
-      <c r="B8" s="14">
-        <v>303</v>
-      </c>
-      <c r="C8" s="14">
-        <v>45</v>
-      </c>
-      <c r="D8" s="14">
-        <v>122</v>
-      </c>
-      <c r="E8" s="14">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="17">
-        <v>41860</v>
-      </c>
-      <c r="B9" s="14">
-        <v>312</v>
-      </c>
-      <c r="C9" s="14">
-        <v>49</v>
-      </c>
-      <c r="D9" s="14">
-        <v>123</v>
-      </c>
-      <c r="E9" s="14">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17">
-        <v>41861</v>
-      </c>
-      <c r="B10" s="14">
-        <v>326</v>
-      </c>
-      <c r="C10" s="14">
-        <v>50</v>
-      </c>
-      <c r="D10" s="14">
-        <v>133</v>
-      </c>
-      <c r="E10" s="14">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17">
-        <v>41862</v>
-      </c>
-      <c r="B11" s="14">
-        <v>344</v>
-      </c>
-      <c r="C11" s="14">
-        <v>50</v>
-      </c>
-      <c r="D11" s="14">
-        <v>151</v>
-      </c>
-      <c r="E11" s="14">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="17">
-        <v>41863</v>
-      </c>
-      <c r="B12" s="14">
-        <v>365</v>
-      </c>
-      <c r="C12" s="14">
-        <v>55</v>
-      </c>
-      <c r="D12" s="14">
-        <v>163</v>
-      </c>
-      <c r="E12" s="14">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="17">
-        <v>41864</v>
-      </c>
-      <c r="B13" s="14">
-        <v>402</v>
-      </c>
-      <c r="C13" s="14">
-        <v>66</v>
-      </c>
-      <c r="D13" s="14">
-        <v>188</v>
-      </c>
-      <c r="E13" s="14">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="17">
-        <v>41865</v>
-      </c>
-      <c r="B14" s="14">
-        <v>435</v>
-      </c>
-      <c r="C14" s="14">
-        <v>79</v>
-      </c>
-      <c r="D14" s="14">
-        <v>192</v>
-      </c>
-      <c r="E14" s="14">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="17">
-        <v>41866</v>
-      </c>
-      <c r="B15" s="14">
-        <v>455</v>
-      </c>
-      <c r="C15" s="14">
-        <v>83</v>
-      </c>
-      <c r="D15" s="14">
-        <v>200</v>
-      </c>
-      <c r="E15" s="14">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="17">
-        <v>41867</v>
-      </c>
-      <c r="B16" s="14">
-        <v>470</v>
-      </c>
-      <c r="C16" s="14">
-        <v>90</v>
-      </c>
-      <c r="D16" s="14">
-        <v>203</v>
-      </c>
-      <c r="E16" s="14">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="17">
-        <v>41868</v>
-      </c>
-      <c r="B17" s="14">
-        <v>481</v>
-      </c>
-      <c r="C17" s="14">
-        <v>97</v>
-      </c>
-      <c r="D17" s="14">
-        <v>204</v>
-      </c>
-      <c r="E17" s="14">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="17">
-        <v>41869</v>
-      </c>
-      <c r="B18" s="14">
-        <v>565</v>
-      </c>
-      <c r="C18" s="14">
-        <v>122</v>
-      </c>
-      <c r="D18" s="14">
-        <v>237</v>
-      </c>
-      <c r="E18" s="14">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="17">
-        <v>41870</v>
-      </c>
-      <c r="B19" s="14">
-        <v>587</v>
-      </c>
-      <c r="C19" s="14">
-        <v>126</v>
-      </c>
-      <c r="D19" s="14">
-        <v>250</v>
-      </c>
-      <c r="E19" s="14">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="17">
-        <v>41871</v>
-      </c>
-      <c r="B20" s="14">
-        <v>613</v>
-      </c>
-      <c r="C20" s="14">
-        <v>132</v>
-      </c>
-      <c r="D20" s="14">
-        <v>265</v>
-      </c>
-      <c r="E20" s="14">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="14">
-        <v>7304</v>
-      </c>
-      <c r="C21" s="14">
-        <v>1292</v>
-      </c>
-      <c r="D21" s="14">
-        <v>3083</v>
-      </c>
-      <c r="E21" s="14">
-        <v>2929</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>